--- a/tables/pointsel_params.xlsx
+++ b/tables/pointsel_params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsamsonov/GitHub/gen-course/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D14CC60-506F-A84B-BE56-F2942DB7350F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C8936E-2F2B-3946-B969-7EAD1D576F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17280" yWindow="2340" windowWidth="28240" windowHeight="17560" xr2:uid="{705125E3-07FC-EB49-9890-2A59003B43D8}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
